--- a/Person/李佳/userStory.xlsx
+++ b/Person/李佳/userStory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lijia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大三\大三上\软件工程\software-process-homework\Person\李佳\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB956FBD-C998-4F4B-8931-B565CE25513D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC2375D-AF30-430F-B922-C9C5A6489E57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>引用编号</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Not Done</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>最热景点推荐</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -97,10 +94,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>作为一个知行用户，我希望能有一个能够搜索景点或者与景点相关的小知识或者小游戏。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐小游戏</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -120,10 +113,6 @@
     <t>景点介绍注重于历史小知识的讲解</t>
   </si>
   <si>
-    <t>作为运营商，我希望知行APP能够让用户在知道了解的前提下对旅游的景点有深层次的认识，并能达到弘扬中国传统知识的目的和愿望。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>发送动态</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -161,6 +150,14 @@
   </si>
   <si>
     <t>作为运营商，考虑到部分景区信号不好的情况，我希望能有语音提前缓存的功能，以防用户在观览景区时加载不出语音，影响用户使用体验。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个知行用户，我希望有一个能够搜索景点或者与景点相关的小知识或者小游戏，以免我不能及时找到想了解的相关信息。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为运营商，我希望知行APP能够让用户在了解景点的前提下对旅游的景点有深层次的认识，并能达到弘扬中国传统知识的目的和愿望。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -169,11 +166,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="180" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="187" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="193" formatCode="0.00;\-0.00;;@\ "/>
-    <numFmt numFmtId="197" formatCode="0;\-0;;@\ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="0.00;\-0.00;;@\ "/>
+    <numFmt numFmtId="180" formatCode="0;\-0;;@\ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -247,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,12 +293,6 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -585,21 +576,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="5" borderId="13">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="13">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="4" fillId="7" borderId="13" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="4" fillId="7" borderId="13" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -623,7 +614,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="193" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -668,36 +659,13 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="197" fontId="6" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -714,9 +682,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1032,10 +997,10 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1044,13 +1009,13 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="36" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1080,10 +1045,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>15</v>
@@ -1097,7 +1062,7 @@
       <c r="H2" s="26">
         <v>98</v>
       </c>
-      <c r="I2" s="46"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="9"/>
       <c r="K2" s="10">
         <v>2</v>
@@ -1107,7 +1072,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1115,10 +1080,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>15</v>
@@ -1132,7 +1097,7 @@
       <c r="H3" s="26">
         <v>96</v>
       </c>
-      <c r="I3" s="46"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10">
         <v>1</v>
@@ -1152,10 +1117,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>15</v>
@@ -1169,7 +1134,7 @@
       <c r="H4" s="25">
         <v>95</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="13"/>
       <c r="K4" s="14">
         <v>3</v>
@@ -1187,10 +1152,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>15</v>
@@ -1204,7 +1169,7 @@
       <c r="H5" s="25">
         <v>93</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>1</v>
@@ -1224,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>15</v>
@@ -1241,7 +1206,7 @@
       <c r="H6" s="25">
         <v>93</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="13"/>
       <c r="K6" s="14">
         <v>2</v>
@@ -1261,10 +1226,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>15</v>
@@ -1278,7 +1243,7 @@
       <c r="H7" s="25">
         <v>90</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="13"/>
       <c r="K7" s="14">
         <v>1</v>
@@ -1298,10 +1263,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>15</v>
@@ -1315,7 +1280,7 @@
       <c r="H8" s="26">
         <v>90</v>
       </c>
-      <c r="I8" s="46"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10">
         <v>2</v>
@@ -1335,10 +1300,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>15</v>
@@ -1352,7 +1317,7 @@
       <c r="H9" s="26">
         <v>88</v>
       </c>
-      <c r="I9" s="46"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10">
         <v>3</v>
@@ -1372,10 +1337,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>15</v>
@@ -1389,7 +1354,7 @@
       <c r="H10" s="26">
         <v>85</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="9"/>
       <c r="K10" s="10">
         <v>1</v>
@@ -1401,7 +1366,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1409,10 +1374,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>15</v>
@@ -1426,7 +1391,7 @@
       <c r="H11" s="26">
         <v>80</v>
       </c>
-      <c r="I11" s="46"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="9"/>
       <c r="K11" s="10">
         <v>2</v>
@@ -1436,45 +1401,32 @@
       <c r="N11" s="10"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="36">
-        <v>19</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="41"/>
+    <row r="12" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20">
-        <v>109</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="21"/>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D46" s="28"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="2"/>
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D47" s="28"/>
@@ -1486,18 +1438,9 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D48" s="28"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Person/李佳/userStory.xlsx
+++ b/Person/李佳/userStory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大三\大三上\软件工程\software-process-homework\Person\李佳\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lijia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC2375D-AF30-430F-B922-C9C5A6489E57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F9F979-4FA8-4AA0-B815-F154C3E106AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>引用编号</t>
   </si>
@@ -78,6 +78,9 @@
     <t>Not Done</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>最热景点推荐</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -98,18 +101,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>作为一个旅游者，我希望在知行APP中有相对活泼的呈现方式，不只是干巴巴的文字和语音介绍。与景点相关的历史知识可以融入到小游戏或者偏动画的表达方式里面，增加趣味性。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>景区景点详细信息</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>作为一个知行APP用户，我希望我能在搜索之后跳转到相关景点介绍页面，不仅仅有文字的介绍，还能有语音详解，更方便我了解当地景点的知识。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>景点介绍注重于历史小知识的讲解</t>
   </si>
   <si>
@@ -117,47 +112,55 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>作为一名知行APP用户，我希望在旅游时可以在APP上记录下自己的感想和精美的照片。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>动态管理</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>作为一个知行APP的用户，我希望能够在发送动态之后对动态进行管理，可以进行编辑或者删除操作。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>个人资料编辑</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>作为一个知行APP的用户，我希望能有个人信息编辑页面，包括昵称，年龄，头像等信息。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>游玩记录</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>作为一名知行APP用户，我希望能在个人详情页面，显示我的游玩记录，并且能进行编辑。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>语音缓存</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>作为运营商，考虑到部分景区信号不好的情况，我希望能有语音提前缓存的功能，以防用户在观览景区时加载不出语音，影响用户使用体验。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一个知行用户，我希望有一个能够搜索景点或者与景点相关的小知识或者小游戏，以免我不能及时找到想了解的相关信息。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为运营商，我希望知行APP能够让用户在了解景点的前提下对旅游的景点有深层次的认识，并能达到弘扬中国传统知识的目的和愿望。</t>
+    <t>作为一个知行用户，我希望能有一个能够搜索景点或者与景点相关的小知识或者小游戏，以便于提高我的使用趣味。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个旅游者，我希望在知行APP中有相对活泼的呈现方式，不只是干巴巴的文字和语音介绍。与景点相关的历史知识可以融入到小游戏或者偏动画的表达方式里面，以便于提高我的用户体验。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个知行APP用户，我希望我能在搜索之后跳转到相关景点介绍页面，不仅仅有文字的介绍，还能有语音详解，以便于我了解当地景点的知识。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为运营商，我希望知行APP能够让用户在知道了解的前提下对旅游的景点有深层次的认识，以便于达到弘扬中国传统知识的目的和愿望。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名知行APP用户，我希望在旅游时可以在APP上记录下自己的感想和精美的照片，以便于保存下自己的美好记忆，提高用户的使用好感。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个知行APP的用户，我希望能够在发送动态之后对动态进行管理，可以进行编辑或者删除操作，以便于我对于个人信息的管理。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个知行APP的用户，我希望能有个人信息编辑页面，包括昵称，年龄，头像等信息，以便于个人信息的管理。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名知行APP用户，我希望能在个人详情页面，显示我的游玩记录，并且能进行编辑，以便于日后查找我的游玩记录。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为运营商，考虑到部分景区信号不好的情况，我希望能有语音提前缓存的功能，以便于用户在观览景区时顺利收听语音，保证用户使用体验。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +296,12 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -590,7 +599,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -666,6 +675,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -682,6 +714,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -997,10 +1032,10 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -1009,13 +1044,13 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="45" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1045,10 +1080,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>15</v>
@@ -1062,7 +1097,7 @@
       <c r="H2" s="26">
         <v>98</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="9"/>
       <c r="K2" s="10">
         <v>2</v>
@@ -1072,7 +1107,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1080,10 +1115,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>15</v>
@@ -1097,7 +1132,7 @@
       <c r="H3" s="26">
         <v>96</v>
       </c>
-      <c r="I3" s="37"/>
+      <c r="I3" s="46"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10">
         <v>1</v>
@@ -1117,10 +1152,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>15</v>
@@ -1134,7 +1169,7 @@
       <c r="H4" s="25">
         <v>95</v>
       </c>
-      <c r="I4" s="38"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="13"/>
       <c r="K4" s="14">
         <v>3</v>
@@ -1155,7 +1190,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>15</v>
@@ -1169,7 +1204,7 @@
       <c r="H5" s="25">
         <v>93</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
         <v>1</v>
@@ -1189,10 +1224,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>15</v>
@@ -1206,7 +1241,7 @@
       <c r="H6" s="25">
         <v>93</v>
       </c>
-      <c r="I6" s="38"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="13"/>
       <c r="K6" s="14">
         <v>2</v>
@@ -1218,7 +1253,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1226,10 +1261,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>15</v>
@@ -1243,7 +1278,7 @@
       <c r="H7" s="25">
         <v>90</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="13"/>
       <c r="K7" s="14">
         <v>1</v>
@@ -1263,10 +1298,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>15</v>
@@ -1280,7 +1315,7 @@
       <c r="H8" s="26">
         <v>90</v>
       </c>
-      <c r="I8" s="37"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10">
         <v>2</v>
@@ -1292,7 +1327,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1300,10 +1335,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>15</v>
@@ -1317,7 +1352,7 @@
       <c r="H9" s="26">
         <v>88</v>
       </c>
-      <c r="I9" s="37"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10">
         <v>3</v>
@@ -1329,7 +1364,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1337,10 +1372,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>15</v>
@@ -1354,7 +1389,7 @@
       <c r="H10" s="26">
         <v>85</v>
       </c>
-      <c r="I10" s="37"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="9"/>
       <c r="K10" s="10">
         <v>1</v>
@@ -1366,7 +1401,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1374,10 +1409,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>15</v>
@@ -1391,7 +1426,7 @@
       <c r="H11" s="26">
         <v>80</v>
       </c>
-      <c r="I11" s="37"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="9"/>
       <c r="K11" s="10">
         <v>2</v>
@@ -1401,32 +1436,45 @@
       <c r="N11" s="10"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="21"/>
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="36">
+        <v>19</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="41"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D46" s="28"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="2"/>
+    <row r="13" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20">
+        <v>109</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D47" s="28"/>
@@ -1438,6 +1486,16 @@
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
     </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D48" s="28"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
